--- a/Engineering Docs/MCU Pinout.xlsx
+++ b/Engineering Docs/MCU Pinout.xlsx
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -327,41 +335,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -431,7 +412,39 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +742,7 @@
   <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,81 +769,81 @@
       <c r="G3" s="2"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="48"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="39"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="48"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:36" ht="15.75" thickBot="1">
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="49"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="65"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="40"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="74"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="71"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="65"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="62"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" thickBot="1">
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="51"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="42"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="49"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="81"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="65"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="40"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1">
-      <c r="F6" s="91">
+      <c r="F6" s="82">
         <f>G6+1</f>
         <v>100</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="83">
         <f t="shared" ref="G6:AC6" si="0">H6+1</f>
         <v>99</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="43">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="44">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="44">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="38">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -842,27 +855,27 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="43">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="38">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="84">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="Q6" s="93">
+      <c r="Q6" s="84">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="36">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="S6" s="76">
+      <c r="S6" s="67">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -894,30 +907,30 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AA6" s="72">
+      <c r="AA6" s="63">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="AB6" s="58">
+      <c r="AB6" s="49">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="AC6" s="58">
+      <c r="AC6" s="49">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="AD6" s="73">
+      <c r="AD6" s="64">
         <f>AE7+1</f>
         <v>76</v>
       </c>
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="59"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42">
+      <c r="A7" s="50"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -951,18 +964,18 @@
         <f>AE8+1</f>
         <v>75</v>
       </c>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="97"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="88"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="60"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="44">
+      <c r="A8" s="51"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="35">
         <f>E7+1</f>
         <v>2</v>
       </c>
@@ -995,18 +1008,18 @@
         <f t="shared" ref="AE8:AE30" si="1">AE9+1</f>
         <v>74</v>
       </c>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="51"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="42"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="60"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="44">
+      <c r="D9" s="14"/>
+      <c r="E9" s="35">
         <f t="shared" ref="E9:E31" si="2">E8+1</f>
         <v>3</v>
       </c>
@@ -1039,18 +1052,18 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="24"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="17"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="8"/>
     </row>
     <row r="10" spans="1:36" ht="15.75" thickBot="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47">
+      <c r="D10" s="37"/>
+      <c r="E10" s="38">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1083,8 +1096,8 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="66"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="11"/>
@@ -1123,12 +1136,12 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="26">
+      <c r="AE11" s="19">
         <f>AE12+1</f>
         <v>71</v>
       </c>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="24"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="17"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
@@ -1166,12 +1179,12 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="26">
+      <c r="AE12" s="19">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="24"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="17"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
@@ -1209,12 +1222,12 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="24">
+      <c r="AE13" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="37"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="28"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
@@ -1252,12 +1265,12 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="24">
+      <c r="AE14" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="38"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="29"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
@@ -1351,8 +1364,8 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="24">
+      <c r="D17" s="19"/>
+      <c r="E17" s="17">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -1395,7 +1408,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="89">
+      <c r="E18" s="80">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1438,7 +1451,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="90">
+      <c r="E19" s="81">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1480,8 +1493,8 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="17">
+      <c r="D20" s="68"/>
+      <c r="E20" s="12">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1514,17 +1527,17 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="AF20" s="54"/>
+      <c r="AF20" s="45"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="24"/>
+      <c r="AH20" s="17"/>
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="17">
+      <c r="D21" s="69"/>
+      <c r="E21" s="12">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1557,17 +1570,17 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="AF21" s="82"/>
+      <c r="AF21" s="73"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="24"/>
+      <c r="AH21" s="17"/>
       <c r="AI21" s="2"/>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="17">
+      <c r="B22" s="51"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="12">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -1600,17 +1613,17 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="84"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="75"/>
       <c r="AI22" s="2"/>
     </row>
     <row r="23" spans="1:35" ht="15.75" thickBot="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="17">
+      <c r="B23" s="51"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="12">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -1643,17 +1656,17 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="67"/>
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="17">
+      <c r="B24" s="51"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="12">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1686,17 +1699,17 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="AF24" s="18"/>
+      <c r="AF24" s="13"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="24"/>
+      <c r="AH24" s="17"/>
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:35" ht="15.75" thickBot="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="17">
+      <c r="B25" s="51"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="12">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -1822,10 +1835,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="19">
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -1865,10 +1878,10 @@
     </row>
     <row r="29" spans="1:35" ht="15.75" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="19">
+      <c r="B29" s="16"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -1908,10 +1921,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="77">
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="68">
         <f>E29+1</f>
         <v>24</v>
       </c>
@@ -1951,10 +1964,10 @@
     </row>
     <row r="31" spans="1:35" ht="15.75" thickBot="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="78">
+      <c r="B31" s="22"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="69">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -1966,8 +1979,8 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -1993,27 +2006,27 @@
       <c r="AI31" s="3"/>
     </row>
     <row r="32" spans="1:35" ht="15.75" thickBot="1">
-      <c r="F32" s="35">
+      <c r="F32" s="26">
         <f>E31+1</f>
         <v>26</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="27">
         <f>F32+1</f>
         <v>27</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="46">
         <f t="shared" ref="H32:AD32" si="3">G32+1</f>
         <v>28</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="47">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="J32" s="56">
+      <c r="J32" s="47">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="48">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -2025,11 +2038,11 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="N32" s="94">
+      <c r="N32" s="99">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="O32" s="48">
+      <c r="O32" s="100">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -2049,15 +2062,15 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="T32" s="61">
+      <c r="T32" s="52">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="U32" s="62">
+      <c r="U32" s="53">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="V32" s="62">
+      <c r="V32" s="53">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -2073,19 +2086,19 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="Z32" s="55">
+      <c r="Z32" s="46">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="AA32" s="56">
+      <c r="AA32" s="47">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="AB32" s="56">
+      <c r="AB32" s="47">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="AC32" s="57">
+      <c r="AC32" s="48">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
@@ -2095,108 +2108,110 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1">
-      <c r="N33" s="85"/>
-      <c r="O33" s="98"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="64"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="102"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="55"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="65"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="56"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="19"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="14"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="68"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="59"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
     </row>
     <row r="41" spans="1:23">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="45" spans="1:23">
       <c r="V45" s="2"/>
@@ -2222,10 +2237,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
